--- a/Attivita Gruppo DB2_W5.xlsx
+++ b/Attivita Gruppo DB2_W5.xlsx
@@ -379,7 +379,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="42">
   <si>
     <t>Dettaglio</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Script monitoraggio TBS</t>
+  </si>
+  <si>
+    <t>Script Backend</t>
   </si>
 </sst>
 </file>
@@ -1050,9 +1053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1472,6 +1475,35 @@
       </c>
       <c r="I14" s="13" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12">
+        <v>42767</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="10">
+        <v>32124534</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.45">
@@ -1675,27 +1707,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Approved xmlns="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad">true</Approved>
-    <Document_x0020_Type xmlns="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad">Comunicazione Interna</Document_x0020_Type>
-    <Company xmlns="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad">GBS</Company>
-    <Competence_x0020_Center xmlns="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad">All</Competence_x0020_Center>
-    <Project xmlns="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010018329B9C43115A49967D936F4CF402D4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="90ebcc0829b67fe732413811d565a2be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9583d0be9ad72c7619dc4c9a6743d44f" ns2:_="">
     <xsd:import namespace="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad"/>
@@ -1814,30 +1825,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B54216B7-DF22-4EF4-A7F5-61AB6EF6C660}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41F3CEAA-FA55-4552-8232-7227AED82319}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Approved xmlns="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad">true</Approved>
+    <Document_x0020_Type xmlns="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad">Comunicazione Interna</Document_x0020_Type>
+    <Company xmlns="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad">GBS</Company>
+    <Competence_x0020_Center xmlns="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad">All</Competence_x0020_Center>
+    <Project xmlns="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{128C698B-9701-46EC-8670-56F61DCC9DC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1852,4 +1861,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41F3CEAA-FA55-4552-8232-7227AED82319}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B54216B7-DF22-4EF4-A7F5-61AB6EF6C660}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e0ac358a-b0a5-4540-ad15-7d1708bfb9ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>